--- a/biology/Botanique/Liste_rouge_régionale_des_espèces_de_plantes_du_Nord-Pas-de-Calais/Liste_rouge_régionale_des_espèces_de_plantes_du_Nord-Pas-de-Calais.xlsx
+++ b/biology/Botanique/Liste_rouge_régionale_des_espèces_de_plantes_du_Nord-Pas-de-Calais/Liste_rouge_régionale_des_espèces_de_plantes_du_Nord-Pas-de-Calais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_des_esp%C3%A8ces_de_plantes_du_Nord-Pas-de-Calais</t>
+          <t>Liste_rouge_régionale_des_espèces_de_plantes_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste rouge régionale des noms d'espèces de plantes est issue du travail du Conservatoire botanique national de Bailleul (Toussaint 2011). Elle a été labellisée par le Comité français de l'UICN[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste rouge régionale des noms d'espèces de plantes est issue du travail du Conservatoire botanique national de Bailleul (Toussaint 2011). Elle a été labellisée par le Comité français de l'UICN.
 Elle comprend 115 taxons disparus régionalement, 23 espèces présumées disparues au niveau régional, 71 taxons en danger critique, 58 taxons en danger, 197 vulnérables et 154 quasi-menacés[Note 1].
 10 % de la flore régionale est donc considérée comme disparue, 11 % menacée à court (CR) ou moyen termes (EN), 23 % menacée à long terme (Valet 2012, p. 71).
 Les menaces pesant sur les espèces végétales régionales sont liées à la disparition ou à la modification des milieux (urbanisation, fragmentation, anthropisation), à la pollution (produits phytosanitaires,eutrophisation), etc. (Valet 2012, p. 72).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_des_esp%C3%A8ces_de_plantes_du_Nord-Pas-de-Calais</t>
+          <t>Liste_rouge_régionale_des_espèces_de_plantes_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Taxons disparus au niveau régional (RE)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">27 % des espèces végétales disparues dans le Nord - Pas-de-Calais étaient liées aux cultures et espaces anthropisés, 20 % aux milieux acides, 17 % aux zones alluviales et 14 % aux milieux calcicoles. Les milieux littoraux, tourbeux alcalins et bocagers ont en revanche perdu relativement peu d’espèces[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27 % des espèces végétales disparues dans le Nord - Pas-de-Calais étaient liées aux cultures et espaces anthropisés, 20 % aux milieux acides, 17 % aux zones alluviales et 14 % aux milieux calcicoles. Les milieux littoraux, tourbeux alcalins et bocagers ont en revanche perdu relativement peu d’espèces.
 Pilularia globulifera L.
 Phegopteris connectilis (Michaux) Watt
 Gymnocarpium dryopteris (L.) Newman
@@ -642,7 +656,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_des_esp%C3%A8ces_de_plantes_du_Nord-Pas-de-Calais</t>
+          <t>Liste_rouge_régionale_des_espèces_de_plantes_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -660,7 +674,9 @@
           <t>Taxons présumés disparus au niveau régional (CR*)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dryopteris cristata (L.) A. Gray
@@ -696,7 +712,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_des_esp%C3%A8ces_de_plantes_du_Nord-Pas-de-Calais</t>
+          <t>Liste_rouge_régionale_des_espèces_de_plantes_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -714,7 +730,9 @@
           <t>Taxons en danger critique (CR)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Taxons confrontés à un risque très élevé de disparition.
 Asplenium septentrionale (L.) Hoffmann
@@ -798,7 +816,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_des_esp%C3%A8ces_de_plantes_du_Nord-Pas-de-Calais</t>
+          <t>Liste_rouge_régionale_des_espèces_de_plantes_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -816,7 +834,9 @@
           <t>Taxon en danger (EN)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèces confrontées à un risque élevé de disparition
 Ceterach officinarum Willd.
@@ -887,7 +907,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_des_esp%C3%A8ces_de_plantes_du_Nord-Pas-de-Calais</t>
+          <t>Liste_rouge_régionale_des_espèces_de_plantes_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -905,7 +925,9 @@
           <t>Taxons vulnérables (VU)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Asplenium adiantum-nigrum L.
@@ -1115,7 +1137,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_des_esp%C3%A8ces_de_plantes_du_Nord-Pas-de-Calais</t>
+          <t>Liste_rouge_régionale_des_espèces_de_plantes_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1133,7 +1155,9 @@
           <t>Taxons quasi-menacés (NT)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Equisetum sylvaticum L.
